--- a/output/tracker.xlsx
+++ b/output/tracker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikeshnagoji/Documents/PythonWorkSpace/jupyter_lab_workspace/PES/final_thesis/masala_unet/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E673011-890F-8142-849B-4F9C455FC265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB51DC-57D2-7E4F-A328-01A5B31D2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="880" windowWidth="36540" windowHeight="24700" xr2:uid="{39A9A94F-620D-D14C-B528-C4E36DBD5C45}"/>
+    <workbookView xWindow="3760" yWindow="880" windowWidth="36540" windowHeight="24700" activeTab="1" xr2:uid="{39A9A94F-620D-D14C-B528-C4E36DBD5C45}"/>
   </bookViews>
   <sheets>
-    <sheet name="brain" sheetId="2" r:id="rId1"/>
-    <sheet name="ISIC skin" sheetId="1" r:id="rId2"/>
+    <sheet name="ISIC skin" sheetId="1" r:id="rId1"/>
+    <sheet name="brain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>sl no</t>
   </si>
@@ -176,12 +176,6 @@
     <t>Brain</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/59ghfhwj</t>
-  </si>
-  <si>
-    <t>UNet3Plus-upbeat-sponge-2</t>
-  </si>
-  <si>
     <t>Mean IOU on validation set</t>
   </si>
   <si>
@@ -212,10 +206,70 @@
     <t>UNet_3Plus_attn_FF-glamorous-cosmos-27</t>
   </si>
   <si>
-    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/bze4a688</t>
-  </si>
-  <si>
-    <t>UNet_3Plus_attn_FF-twilight-pine-3</t>
+    <t>AttentionUNet-adam-devoted-glitter-7</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/kj0qxfe6</t>
+  </si>
+  <si>
+    <t>AttentionUNetFF-lion-glad-pine-13</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/3fsdwus8</t>
+  </si>
+  <si>
+    <t>RERUN with ADAM</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/1j6yn4zy</t>
+  </si>
+  <si>
+    <t>UNet3Plus-adamw-floral-feather-15</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/f8me9a4n</t>
+  </si>
+  <si>
+    <t>UNet_3Plus_attn_FF-lion-rare-star-17</t>
+  </si>
+  <si>
+    <t>UNet_3Plus_attn_FF-lion-CONTINUED-apricot-moon-19</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/nnld21t8</t>
+  </si>
+  <si>
+    <t>InceptionUNet-lion-fragrant-plasma-20</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/zuiobfgn</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/hazwtxh8</t>
+  </si>
+  <si>
+    <t>UNet-adamw-stellar-serenity-22</t>
+  </si>
+  <si>
+    <t>InceptionUNetFFAtDecoder-lion-deft-sea-24</t>
+  </si>
+  <si>
+    <t>InceptionUNetFFAtDecoder</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/8lj5632w</t>
+  </si>
+  <si>
+    <t>UNet_3Plus_attn_FFAtDecoder-lion-earnest-surf-25</t>
+  </si>
+  <si>
+    <t>UNet_3Plus_attn_FFAtDecoder</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/srikeshnagoji/unet_vanced_brain/runs/no6dq5yp</t>
   </si>
 </sst>
 </file>
@@ -284,13 +338,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -697,404 +750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32DD5D2-3731-DC46-B2C3-494BF365F6CF}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="30.1640625" customWidth="1"/>
-    <col min="14" max="14" width="37.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>150</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>26971777</v>
-      </c>
-      <c r="H8">
-        <v>26971777</v>
-      </c>
-      <c r="I8">
-        <v>0.38593</v>
-      </c>
-      <c r="J8">
-        <v>1.1780000000000001E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.61397000000000002</v>
-      </c>
-      <c r="L8">
-        <v>1.1780000000000001E-2</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <v>150</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>36286477</v>
-      </c>
-      <c r="H14">
-        <v>36286477</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M14" r:id="rId1" xr:uid="{4839AB62-E1B9-3D4B-9026-9FE763F3B020}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C791FDBF-9469-9143-9FB8-CE4EDFB8E431}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E14"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +936,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5">
@@ -1564,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1585,10 +1245,10 @@
         <v>49174061</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1596,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -1626,10 +1286,10 @@
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1637,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -1667,10 +1327,10 @@
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1702,4 +1362,585 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32DD5D2-3731-DC46-B2C3-494BF365F6CF}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" customWidth="1"/>
+    <col min="14" max="14" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>32042985</v>
+      </c>
+      <c r="H4">
+        <v>32042985</v>
+      </c>
+      <c r="I4">
+        <v>0.23744000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.78225999999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.76295000000000002</v>
+      </c>
+      <c r="L4">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>43121133</v>
+      </c>
+      <c r="H5">
+        <v>43121133</v>
+      </c>
+      <c r="I5">
+        <v>0.69616</v>
+      </c>
+      <c r="J5">
+        <v>0.70596999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.30351</v>
+      </c>
+      <c r="L5">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>26971777</v>
+      </c>
+      <c r="H8">
+        <v>26971777</v>
+      </c>
+      <c r="I8">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.78039000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.85921000000000003</v>
+      </c>
+      <c r="L8">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.74028470000000002</v>
+      </c>
+      <c r="L9">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>39396033</v>
+      </c>
+      <c r="H10">
+        <v>39396033</v>
+      </c>
+      <c r="I10">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="J10">
+        <v>2.0410000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.3140000000000001E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.01</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>36286477</v>
+      </c>
+      <c r="H14">
+        <v>36286477</v>
+      </c>
+      <c r="I14">
+        <v>0.1148</v>
+      </c>
+      <c r="J14">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K14">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="L14">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>32849065</v>
+      </c>
+      <c r="H16">
+        <v>32849065</v>
+      </c>
+      <c r="I16">
+        <v>0.29357</v>
+      </c>
+      <c r="J16">
+        <v>0.75146000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.78642999999999996</v>
+      </c>
+      <c r="L16">
+        <v>5.28E-3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>50635277</v>
+      </c>
+      <c r="H17">
+        <v>50635277</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I1048576 I1:I14">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{B38F6BBB-D98E-314F-9289-F46CE8C655B6}"/>
+    <hyperlink ref="M15" r:id="rId2" xr:uid="{D85E1AB0-5DB2-6141-8C47-DF2A5BB31AF0}"/>
+    <hyperlink ref="M16" r:id="rId3" xr:uid="{2DA0CC0A-36F8-284B-AB52-E51D9B102684}"/>
+    <hyperlink ref="M17" r:id="rId4" xr:uid="{51317956-F5E5-8346-B949-00ACEADFB8FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>